--- a/modelos/OBACOM4423020/OBACOM4423020_Sell Out_metricas.xlsx
+++ b/modelos/OBACOM4423020/OBACOM4423020_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,101 +473,141 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45024</v>
+        <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>38.25251422120201</v>
+        <v>47.21677735231748</v>
       </c>
       <c r="C2" t="n">
-        <v>18.93973653758383</v>
+        <v>29.44786344224704</v>
       </c>
       <c r="D2" t="n">
-        <v>57.16688521470597</v>
+        <v>65.75646662781537</v>
       </c>
       <c r="E2" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45019</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45027</v>
+        <v>45024</v>
       </c>
       <c r="B3" t="n">
-        <v>48.01885616998992</v>
+        <v>39.9386048725248</v>
       </c>
       <c r="C3" t="n">
-        <v>30.25036068197042</v>
+        <v>19.50656663717242</v>
       </c>
       <c r="D3" t="n">
-        <v>66.97844491258797</v>
+        <v>58.70111902935511</v>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45026</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>32.8054006459808</v>
+        <v>49.31954535561548</v>
       </c>
       <c r="C4" t="n">
-        <v>14.34639353995875</v>
+        <v>31.70979959733593</v>
       </c>
       <c r="D4" t="n">
-        <v>52.53949936767579</v>
+        <v>69.3936384993434</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45033</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45056</v>
+        <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>55.49179560187915</v>
+        <v>33.84424784277895</v>
       </c>
       <c r="C5" t="n">
-        <v>36.97766423557346</v>
+        <v>15.53340710105461</v>
       </c>
       <c r="D5" t="n">
-        <v>72.17293766357496</v>
+        <v>54.08423919176334</v>
       </c>
       <c r="E5" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45049</v>
+        <v>45035</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B6" t="n">
+        <v>51.87523392804314</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33.39760894789151</v>
+      </c>
+      <c r="D6" t="n">
+        <v>71.31933796140277</v>
+      </c>
+      <c r="E6" t="n">
+        <v>79</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56.20116812533444</v>
+      </c>
+      <c r="C7" t="n">
+        <v>35.82805468710187</v>
+      </c>
+      <c r="D7" t="n">
+        <v>76.43485972597431</v>
+      </c>
+      <c r="E7" t="n">
+        <v>84</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="B6" t="n">
-        <v>62.50314463891257</v>
-      </c>
-      <c r="C6" t="n">
-        <v>43.10659027259108</v>
-      </c>
-      <c r="D6" t="n">
-        <v>81.08394856939614</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B8" t="n">
+        <v>63.55232348143554</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43.2656486951339</v>
+      </c>
+      <c r="D8" t="n">
+        <v>82.68868570935167</v>
+      </c>
+      <c r="E8" t="n">
         <v>35</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>45056</v>
       </c>
     </row>
@@ -582,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,25 +674,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>399.24610875555</v>
+        <v>536.2679657014671</v>
       </c>
       <c r="C2" t="n">
-        <v>19.98114383001008</v>
+        <v>23.15746026017247</v>
       </c>
       <c r="D2" t="n">
-        <v>19.98114383001008</v>
+        <v>23.13908623989634</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2938403504413247</v>
+        <v>0.6323151964797495</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2938403504413247</v>
+        <v>0.6323151964797495</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3444464889523453</v>
+        <v>0.5391363398295884</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -663,50 +703,76 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>662.9330239294046</v>
+        <v>124.4508061933421</v>
       </c>
       <c r="C3" t="n">
-        <v>25.74748577879799</v>
+        <v>11.15575215722105</v>
       </c>
       <c r="D3" t="n">
-        <v>25.74748577879799</v>
+        <v>11.15575215722105</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4023044652937185</v>
+        <v>0.2479056034938011</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4023044652937185</v>
+        <v>0.2479056034938011</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5036059205957257</v>
+        <v>0.2829820173937462</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>735.7529344583821</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27.12476607195686</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.12476607195686</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3433514692652768</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3433514692652768</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4145133537926725</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>572.6163121463426</v>
-      </c>
-      <c r="C4" t="n">
-        <v>23.92940267006978</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.73531613035087</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4653928716627521</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3393833856919149</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4287855915787917</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="B5" t="n">
+        <v>645.6565385017882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25.40977250000063</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.01053666682854</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4738105712987767</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3309384746983995</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4314818085307615</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3333333333333334</v>
       </c>
     </row>

--- a/modelos/OBACOM4423020/OBACOM4423020_Sell Out_metricas.xlsx
+++ b/modelos/OBACOM4423020/OBACOM4423020_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>47.21677735231748</v>
+        <v>47.21677735231943</v>
       </c>
       <c r="C2" t="n">
-        <v>29.44786344224704</v>
+        <v>28.49611243771982</v>
       </c>
       <c r="D2" t="n">
-        <v>65.75646662781537</v>
+        <v>65.61377708106018</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
@@ -496,13 +496,13 @@
         <v>45024</v>
       </c>
       <c r="B3" t="n">
-        <v>39.9386048725248</v>
+        <v>39.93860487252729</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50656663717242</v>
+        <v>19.91478734623854</v>
       </c>
       <c r="D3" t="n">
-        <v>58.70111902935511</v>
+        <v>59.39513882303232</v>
       </c>
       <c r="E3" t="n">
         <v>64</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>49.31954535561548</v>
+        <v>49.31954535561804</v>
       </c>
       <c r="C4" t="n">
-        <v>31.70979959733593</v>
+        <v>31.06351262288022</v>
       </c>
       <c r="D4" t="n">
-        <v>69.3936384993434</v>
+        <v>67.81239107978291</v>
       </c>
       <c r="E4" t="n">
         <v>68</v>
@@ -536,13 +536,13 @@
         <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>33.84424784277895</v>
+        <v>33.84424784289691</v>
       </c>
       <c r="C5" t="n">
-        <v>15.53340710105461</v>
+        <v>15.59668910381485</v>
       </c>
       <c r="D5" t="n">
-        <v>54.08423919176334</v>
+        <v>54.1024248507024</v>
       </c>
       <c r="E5" t="n">
         <v>45</v>
@@ -556,13 +556,13 @@
         <v>45048</v>
       </c>
       <c r="B6" t="n">
-        <v>51.87523392804314</v>
+        <v>51.8752339274667</v>
       </c>
       <c r="C6" t="n">
-        <v>33.39760894789151</v>
+        <v>31.75096467185712</v>
       </c>
       <c r="D6" t="n">
-        <v>71.31933796140277</v>
+        <v>70.80140103193374</v>
       </c>
       <c r="E6" t="n">
         <v>79</v>
@@ -576,13 +576,13 @@
         <v>45056</v>
       </c>
       <c r="B7" t="n">
-        <v>56.20116812533444</v>
+        <v>56.20116812533947</v>
       </c>
       <c r="C7" t="n">
-        <v>35.82805468710187</v>
+        <v>35.77961693903679</v>
       </c>
       <c r="D7" t="n">
-        <v>76.43485972597431</v>
+        <v>74.96401291334756</v>
       </c>
       <c r="E7" t="n">
         <v>84</v>
@@ -596,13 +596,13 @@
         <v>45063</v>
       </c>
       <c r="B8" t="n">
-        <v>63.55232348143554</v>
+        <v>63.55232375111319</v>
       </c>
       <c r="C8" t="n">
-        <v>43.2656486951339</v>
+        <v>44.26477352433538</v>
       </c>
       <c r="D8" t="n">
-        <v>82.68868570935167</v>
+        <v>82.74816904809911</v>
       </c>
       <c r="E8" t="n">
         <v>35</v>
@@ -677,22 +677,22 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>536.2679657014671</v>
+        <v>536.2679657014503</v>
       </c>
       <c r="C2" t="n">
-        <v>23.15746026017247</v>
+        <v>23.1574602601721</v>
       </c>
       <c r="D2" t="n">
-        <v>23.13908623989634</v>
+        <v>23.13908623989607</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6323151964797495</v>
+        <v>0.6323151964797691</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6323151964797495</v>
+        <v>0.6323151964797691</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5391363398295884</v>
+        <v>0.5391363398295775</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>124.4508061933421</v>
+        <v>124.4508061907102</v>
       </c>
       <c r="C3" t="n">
-        <v>11.15575215722105</v>
+        <v>11.15575215710309</v>
       </c>
       <c r="D3" t="n">
-        <v>11.15575215722105</v>
+        <v>11.15575215710309</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2479056034938011</v>
+        <v>0.2479056034911797</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2479056034938011</v>
+        <v>0.2479056034911797</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2829820173937462</v>
+        <v>0.2829820173903304</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -729,22 +729,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>735.7529344583821</v>
+        <v>735.7529344896539</v>
       </c>
       <c r="C4" t="n">
-        <v>27.12476607195686</v>
+        <v>27.1247660725333</v>
       </c>
       <c r="D4" t="n">
-        <v>27.12476607195686</v>
+        <v>27.1247660725333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3433514692652768</v>
+        <v>0.3433514692725735</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3433514692652768</v>
+        <v>0.3433514692725735</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4145133537926725</v>
+        <v>0.4145133538033073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -755,25 +755,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>645.6565385017882</v>
+        <v>645.6565436349454</v>
       </c>
       <c r="C5" t="n">
-        <v>25.40977250000063</v>
+        <v>25.40977260100817</v>
       </c>
       <c r="D5" t="n">
-        <v>25.01053666682854</v>
+        <v>25.01053675671856</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4738105712987767</v>
+        <v>0.4738105738671029</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3309384746983995</v>
+        <v>0.3309384746983396</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4314818085307615</v>
+        <v>0.4314818098264563</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3333333333333334</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACOM4423020/OBACOM4423020_Sell Out_metricas.xlsx
+++ b/modelos/OBACOM4423020/OBACOM4423020_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>47.21677735231943</v>
       </c>
       <c r="C2" t="n">
-        <v>28.49611243771982</v>
+        <v>28.40026863473825</v>
       </c>
       <c r="D2" t="n">
-        <v>65.61377708106018</v>
+        <v>65.7017870439673</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
@@ -499,10 +499,10 @@
         <v>39.93860487252729</v>
       </c>
       <c r="C3" t="n">
-        <v>19.91478734623854</v>
+        <v>20.69940538129603</v>
       </c>
       <c r="D3" t="n">
-        <v>59.39513882303232</v>
+        <v>59.40212307826037</v>
       </c>
       <c r="E3" t="n">
         <v>64</v>
@@ -519,10 +519,10 @@
         <v>49.31954535561804</v>
       </c>
       <c r="C4" t="n">
-        <v>31.06351262288022</v>
+        <v>30.20926560575498</v>
       </c>
       <c r="D4" t="n">
-        <v>67.81239107978291</v>
+        <v>69.17437380587003</v>
       </c>
       <c r="E4" t="n">
         <v>68</v>
@@ -539,10 +539,10 @@
         <v>33.84424784289691</v>
       </c>
       <c r="C5" t="n">
-        <v>15.59668910381485</v>
+        <v>14.519019296259</v>
       </c>
       <c r="D5" t="n">
-        <v>54.1024248507024</v>
+        <v>54.06806702814438</v>
       </c>
       <c r="E5" t="n">
         <v>45</v>
@@ -559,10 +559,10 @@
         <v>51.8752339274667</v>
       </c>
       <c r="C6" t="n">
-        <v>31.75096467185712</v>
+        <v>32.80502551174914</v>
       </c>
       <c r="D6" t="n">
-        <v>70.80140103193374</v>
+        <v>71.04078708266884</v>
       </c>
       <c r="E6" t="n">
         <v>79</v>
@@ -579,10 +579,10 @@
         <v>56.20116812533947</v>
       </c>
       <c r="C7" t="n">
-        <v>35.77961693903679</v>
+        <v>36.00993365727484</v>
       </c>
       <c r="D7" t="n">
-        <v>74.96401291334756</v>
+        <v>75.91296864825588</v>
       </c>
       <c r="E7" t="n">
         <v>84</v>
@@ -599,10 +599,10 @@
         <v>63.55232375111319</v>
       </c>
       <c r="C8" t="n">
-        <v>44.26477352433538</v>
+        <v>42.36753886255261</v>
       </c>
       <c r="D8" t="n">
-        <v>82.74816904809911</v>
+        <v>82.55959579260552</v>
       </c>
       <c r="E8" t="n">
         <v>35</v>
@@ -773,7 +773,7 @@
         <v>0.4314818098264563</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
   </sheetData>
